--- a/eims-toi-transect/bottleEn617withoutincubation.xlsx
+++ b/eims-toi-transect/bottleEn617withoutincubation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaxinewolfe/Documents/WHOI/NESLTER/nes-lter-eims-toi-ncp-gop/eims-toi-transect/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4629E3-3AA2-BA43-A6FD-B7C5D08AC6C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131FB199-7EA4-1A45-BB36-136F06076E9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="24640" windowHeight="13580" xr2:uid="{8AD418DF-CAE3-3A45-AF9A-9178C500DE7D}"/>
   </bookViews>
@@ -111,9 +111,6 @@
     <t>O2_Ar_ratio</t>
   </si>
   <si>
-    <t>Oxygen-argon ratio of sample</t>
-  </si>
-  <si>
     <t>D17</t>
   </si>
   <si>
@@ -139,6 +136,9 @@
   </si>
   <si>
     <t>NaN</t>
+  </si>
+  <si>
+    <t>Oxygen-argon ratio of bottle sample</t>
   </si>
 </sst>
 </file>
@@ -496,7 +496,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -569,11 +569,11 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
         <v>30</v>
       </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
@@ -581,10 +581,10 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -601,10 +601,10 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -640,7 +640,7 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -651,10 +651,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -665,10 +665,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -679,10 +679,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>

--- a/eims-toi-transect/bottleEn617withoutincubation.xlsx
+++ b/eims-toi-transect/bottleEn617withoutincubation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaxinewolfe/Documents/WHOI/NESLTER/nes-lter-eims-toi-ncp-gop/eims-toi-transect/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131FB199-7EA4-1A45-BB36-136F06076E9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844B2776-C6BE-5348-B4F9-CFC7E63D9448}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24640" windowHeight="13580" xr2:uid="{8AD418DF-CAE3-3A45-AF9A-9178C500DE7D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" xr2:uid="{8AD418DF-CAE3-3A45-AF9A-9178C500DE7D}"/>
   </bookViews>
   <sheets>
     <sheet name="ColumnHeaders" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>attributeName</t>
   </si>
@@ -54,9 +54,6 @@
     <t>missingValueCodeExplanation</t>
   </si>
   <si>
-    <t>utc_datetime</t>
-  </si>
-  <si>
     <t>Date and time in UTC</t>
   </si>
   <si>
@@ -66,9 +63,6 @@
     <t>YYYY-MM-DD hh:mm:ss</t>
   </si>
   <si>
-    <t>matlab_datetime</t>
-  </si>
-  <si>
     <t>UTC date and time in MATLAB serial date number format</t>
   </si>
   <si>
@@ -81,9 +75,6 @@
     <t>toi_source</t>
   </si>
   <si>
-    <t>Source of the sample (bottle vs. underway)</t>
-  </si>
-  <si>
     <t>character</t>
   </si>
   <si>
@@ -105,9 +96,6 @@
     <t>O2_Ar_delta</t>
   </si>
   <si>
-    <t>Oxygen-argon ratio divided by the reference ratio (O2/Ar in air) -1)*100</t>
-  </si>
-  <si>
     <t>O2_Ar_ratio</t>
   </si>
   <si>
@@ -126,9 +114,6 @@
     <t>CTD rosette cast number, chronological per cruise</t>
   </si>
   <si>
-    <t>Isotopic composition of dissolved oxygen versus atmospheric O2 in parts per thousand</t>
-  </si>
-  <si>
     <t>Triple isotopic composition of dissolved oxygen versus atmospheric O2 in parts per million</t>
   </si>
   <si>
@@ -139,6 +124,39 @@
   </si>
   <si>
     <t>Oxygen-argon ratio of bottle sample</t>
+  </si>
+  <si>
+    <t>datetime_utc</t>
+  </si>
+  <si>
+    <t>datetime_utc_matlab</t>
+  </si>
+  <si>
+    <t>Oxygen-17 composition of dissolved oxygen versus atmospheric O2 in parts per thousand</t>
+  </si>
+  <si>
+    <t>Oxygen-18 composition of dissolved oxygen versus atmospheric O2 in parts per thousand</t>
+  </si>
+  <si>
+    <t>Oxygen-argon ratio divided by the reference ratio (oxygen-argon ratio in air minus 1, multiplied by 100)</t>
+  </si>
+  <si>
+    <t>Bottle sample from niskin or underway</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>Latitude of sample event</t>
+  </si>
+  <si>
+    <t>degree</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>Longitude of sample event</t>
   </si>
 </sst>
 </file>
@@ -493,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80F76D0-FAAE-EA44-8ACD-53FE8F81480D}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -530,165 +548,193 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
         <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/eims-toi-transect/bottleEn617withoutincubation.xlsx
+++ b/eims-toi-transect/bottleEn617withoutincubation.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaxinewolfe/Documents/WHOI/NESLTER/nes-lter-eims-toi-ncp-gop/eims-toi-transect/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanglab\Documents\GitHub\nes-lter-eims-toi-ncp-gop\eims-toi-transect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844B2776-C6BE-5348-B4F9-CFC7E63D9448}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" xr2:uid="{8AD418DF-CAE3-3A45-AF9A-9178C500DE7D}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="14556"/>
   </bookViews>
   <sheets>
     <sheet name="ColumnHeaders" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
   <si>
     <t>attributeName</t>
   </si>
@@ -84,9 +83,6 @@
     <t>Rosette bottle position number</t>
   </si>
   <si>
-    <t>depth</t>
-  </si>
-  <si>
     <t>Depth of sample below sea surface. URI http://vocab.nerc.ac.uk/collection/P09/current/DEPH/</t>
   </si>
   <si>
@@ -157,12 +153,21 @@
   </si>
   <si>
     <t>Longitude of sample event</t>
+  </si>
+  <si>
+    <t>depth_mat_file</t>
+  </si>
+  <si>
+    <t>depth_API_bottle_summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depth of sample below sea surface  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -510,20 +515,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80F76D0-FAAE-EA44-8ACD-53FE8F81480D}">
-  <dimension ref="A1:G14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.69921875" customWidth="1"/>
+    <col min="2" max="2" width="80.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -546,9 +551,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -560,9 +565,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -574,51 +579,51 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
         <v>37</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>40</v>
       </c>
-      <c r="B5" t="s">
-        <v>41</v>
-      </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
         <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -627,13 +632,13 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -647,46 +652,46 @@
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -695,12 +700,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
@@ -709,12 +714,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -723,17 +728,31 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
       </c>
       <c r="D14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
         <v>12</v>
       </c>
     </row>

--- a/eims-toi-transect/bottleEn617withoutincubation.xlsx
+++ b/eims-toi-transect/bottleEn617withoutincubation.xlsx
@@ -74,9 +74,6 @@
     <t>toi_source</t>
   </si>
   <si>
-    <t>character</t>
-  </si>
-  <si>
     <t>niskin</t>
   </si>
   <si>
@@ -162,6 +159,9 @@
   </si>
   <si>
     <t xml:space="preserve">Depth of sample below sea surface  </t>
+  </si>
+  <si>
+    <t>categorical</t>
   </si>
 </sst>
 </file>
@@ -519,7 +519,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -553,7 +553,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -581,30 +581,30 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
         <v>36</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>37</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
         <v>39</v>
       </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -612,18 +612,18 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
         <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -632,18 +632,18 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
         <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -652,46 +652,46 @@
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
         <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
         <v>42</v>
       </c>
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -702,10 +702,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
@@ -716,10 +716,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -730,10 +730,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -744,10 +744,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>

--- a/eims-toi-transect/bottleEn617withoutincubation.xlsx
+++ b/eims-toi-transect/bottleEn617withoutincubation.xlsx
@@ -92,24 +92,12 @@
     <t>O2_Ar_ratio</t>
   </si>
   <si>
-    <t>D17</t>
-  </si>
-  <si>
-    <t>d17</t>
-  </si>
-  <si>
-    <t>d18</t>
-  </si>
-  <si>
     <t>cast</t>
   </si>
   <si>
     <t>CTD rosette cast number, chronological per cruise</t>
   </si>
   <si>
-    <t>Triple isotopic composition of dissolved oxygen versus atmospheric O2 in parts per million</t>
-  </si>
-  <si>
     <t>Sample from underway</t>
   </si>
   <si>
@@ -125,12 +113,6 @@
     <t>datetime_utc_matlab</t>
   </si>
   <si>
-    <t>Oxygen-17 composition of dissolved oxygen versus atmospheric O2 in parts per thousand</t>
-  </si>
-  <si>
-    <t>Oxygen-18 composition of dissolved oxygen versus atmospheric O2 in parts per thousand</t>
-  </si>
-  <si>
     <t>Oxygen-argon ratio divided by the reference ratio (oxygen-argon ratio in air minus 1, multiplied by 100)</t>
   </si>
   <si>
@@ -162,6 +144,24 @@
   </si>
   <si>
     <t>categorical</t>
+  </si>
+  <si>
+    <t>cap_Delta_17</t>
+  </si>
+  <si>
+    <t>D17, triple isotopic composition of dissolved oxygen versus atmospheric O2 in per meg</t>
+  </si>
+  <si>
+    <t>Oxygen-17 composition of dissolved oxygen versus atmospheric O2 in per mil</t>
+  </si>
+  <si>
+    <t>Oxygen-18 composition of dissolved oxygen versus atmospheric O2 in per mil</t>
+  </si>
+  <si>
+    <t>delta_17</t>
+  </si>
+  <si>
+    <t>delta_18</t>
   </si>
 </sst>
 </file>
@@ -519,7 +519,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D12" sqref="D12:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -553,7 +553,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -581,30 +581,30 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -612,18 +612,18 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -632,10 +632,10 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -652,15 +652,15 @@
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -674,10 +674,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -691,7 +691,7 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -705,7 +705,7 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
@@ -716,10 +716,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -730,10 +730,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -744,10 +744,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
